--- a/test/fixtures/excel.xlsx
+++ b/test/fixtures/excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -403,16 +403,53 @@
   </si>
   <si>
     <t>kris@portlandracing.com</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Event ID</t>
+  </si>
+  <si>
+    <t>AZ314</t>
+  </si>
+  <si>
+    <t>ZIP+4</t>
+  </si>
+  <si>
+    <t>97202-1304</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -435,14 +472,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -772,15 +818,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A68"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,8 +851,23 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>38737</v>
       </c>
@@ -825,8 +886,23 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>97202</v>
+      </c>
+      <c r="K2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.52426736111111116</v>
+      </c>
+      <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>38738</v>
       </c>
@@ -846,7 +922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>38767</v>
       </c>
@@ -872,7 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>38774</v>
       </c>
@@ -898,7 +974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>38781</v>
       </c>
@@ -927,7 +1003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>38788</v>
       </c>
@@ -956,7 +1032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>38849</v>
       </c>
@@ -982,7 +1058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>38850</v>
       </c>
@@ -1011,7 +1087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>38851</v>
       </c>
@@ -1040,7 +1116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>38854</v>
       </c>
@@ -1069,7 +1145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>38856</v>
       </c>
@@ -1095,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>38861</v>
       </c>
@@ -1124,7 +1200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>38863</v>
       </c>
@@ -1150,7 +1226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>38865</v>
       </c>
@@ -1179,7 +1255,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>38868</v>
       </c>
@@ -2577,6 +2653,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
